--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.report.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -64,6 +64,15 @@
     <t>perm.up.report-ticket.activity</t>
   </si>
   <si>
+    <t>d130cd67-0222-4ee7-a757-6c17bf969e94</t>
+  </si>
+  <si>
+    <t>perm.up.report-assets.list</t>
+  </si>
+  <si>
+    <t>资产数据</t>
+  </si>
+  <si>
     <t>S_PERMISSION</t>
   </si>
   <si>
@@ -109,6 +118,15 @@
     <t>x.activity</t>
   </si>
   <si>
+    <t>5503836b-3fe8-464e-b5b4-8bfc51e40b7a</t>
+  </si>
+  <si>
+    <t>读取资产列表</t>
+  </si>
+  <si>
+    <t>e.asset</t>
+  </si>
+  <si>
     <t>S_ACTION</t>
   </si>
   <si>
@@ -184,6 +202,15 @@
     <t>/api/up/report/activity/:key</t>
   </si>
   <si>
+    <t>3d7d28a0-d51c-4e22-97bd-7bb16fa04011</t>
+  </si>
+  <si>
+    <t>ce3d308c-655f-48fd-9a7f-3694f4c2753f</t>
+  </si>
+  <si>
+    <t>/api/up/report/assets/list/:user</t>
+  </si>
+  <si>
     <t>S_RESOURCE</t>
   </si>
   <si>
@@ -230,6 +257,12 @@
   </si>
   <si>
     <t>res.up.ticket.activity</t>
+  </si>
+  <si>
+    <t>res.up.assets.list</t>
+  </si>
+  <si>
+    <t>resource.ci</t>
   </si>
 </sst>
 </file>
@@ -237,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,15 +316,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,10 +338,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,6 +399,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -344,92 +446,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,13 +499,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,25 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,25 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,31 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,67 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,8 +761,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,8 +785,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,21 +811,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,148 +858,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1037,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1440,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.2"/>
@@ -1530,76 +1531,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
+    <row r="7" s="1" customFormat="1" ht="23.2" spans="1:4">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
@@ -1612,311 +1610,398 @@
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="15" t="s">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="D23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="19" t="s">
+      <c r="H23" s="23">
+        <v>4</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="24"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="23">
+        <v>1</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="F32" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="23">
+        <v>4</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="C33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="23">
+      <c r="F33" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="23">
         <v>1</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="23">
-        <v>4</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="23">
-        <v>1</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="23">
-        <v>4</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C28:I28"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.report.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -64,15 +64,6 @@
     <t>perm.up.report-ticket.activity</t>
   </si>
   <si>
-    <t>d130cd67-0222-4ee7-a757-6c17bf969e94</t>
-  </si>
-  <si>
-    <t>perm.up.report-assets.list</t>
-  </si>
-  <si>
-    <t>资产数据</t>
-  </si>
-  <si>
     <t>S_PERMISSION</t>
   </si>
   <si>
@@ -118,15 +109,6 @@
     <t>x.activity</t>
   </si>
   <si>
-    <t>5503836b-3fe8-464e-b5b4-8bfc51e40b7a</t>
-  </si>
-  <si>
-    <t>读取资产列表</t>
-  </si>
-  <si>
-    <t>e.asset</t>
-  </si>
-  <si>
     <t>S_ACTION</t>
   </si>
   <si>
@@ -196,19 +178,7 @@
     <t>e46e4503-bfb8-422b-8b19-191f7b13685d</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>/api/up/report/activity/:key</t>
-  </si>
-  <si>
-    <t>3d7d28a0-d51c-4e22-97bd-7bb16fa04011</t>
-  </si>
-  <si>
-    <t>ce3d308c-655f-48fd-9a7f-3694f4c2753f</t>
-  </si>
-  <si>
-    <t>/api/up/report/assets/list/:user</t>
+    <t>/api/up/report/activity</t>
   </si>
   <si>
     <t>S_RESOURCE</t>
@@ -257,12 +227,6 @@
   </si>
   <si>
     <t>res.up.ticket.activity</t>
-  </si>
-  <si>
-    <t>res.up.assets.list</t>
-  </si>
-  <si>
-    <t>resource.ci</t>
   </si>
 </sst>
 </file>
@@ -270,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -317,14 +281,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +302,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -346,74 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,39 +417,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,43 +469,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,115 +589,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,30 +725,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -795,32 +735,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -855,151 +778,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,10 +1405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.2"/>
@@ -1531,73 +1495,76 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="23.2" spans="1:4">
-      <c r="A7" s="11" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="35" t="s">
+      <c r="C12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
@@ -1610,398 +1577,311 @@
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="23">
+        <v>4</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="24"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="H27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="21" t="s">
+      <c r="B28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="B29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="23">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="23">
+      <c r="C29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="23">
         <v>4</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="24"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="23">
-        <v>1</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="23">
-        <v>4</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="23">
-        <v>1</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C25:I25"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
